--- a/FPGA_Developments/Dumb_COM_Module/References/NIOS_DCOM_v1.0_Map.xlsx
+++ b/FPGA_Developments/Dumb_COM_Module/References/NIOS_DCOM_v1.0_Map.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rfranca\Development\GitHub\IWF_SimuCam_Development\FPGA_Developments\Dumb_COM_Module\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AACE04-3B77-405C-AC12-EF0593E63A23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD0BA34-2B21-4230-AE94-1A6391144663}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="21600" windowHeight="11280" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVS DCOM Registers" sheetId="17" r:id="rId1"/>
@@ -580,15 +579,9 @@
     <t>TC_TX_TIME</t>
   </si>
   <si>
-    <t>TX_TX_CONTROL</t>
-  </si>
-  <si>
     <t>TC_TX_SEND</t>
   </si>
   <si>
-    <t>TX_RX_CONTROL</t>
-  </si>
-  <si>
     <t>TC_RX_RECEIVED</t>
   </si>
   <si>
@@ -722,6 +715,12 @@
   </si>
   <si>
     <t>spw_timecode_tx_rxctrl_reg</t>
+  </si>
+  <si>
+    <t>TC_RX_CONTROL</t>
+  </si>
+  <si>
+    <t>TC_TX_CONTROL</t>
   </si>
 </sst>
 </file>
@@ -977,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,7 +1053,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,46 +1080,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,9 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,98 +1396,95 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AH87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="44" t="str">
+      <c r="C3" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(0,2))</f>
         <v>0x00</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>35</v>
@@ -1590,20 +1583,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="41"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="14" t="s">
         <v>39</v>
       </c>
@@ -1677,20 +1670,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="18">
         <v>0</v>
       </c>
@@ -1764,20 +1757,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="46"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="21" t="s">
         <v>37</v>
       </c>
@@ -1849,89 +1842,89 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44" t="str">
+      <c r="C10" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C3,2))+1,2))</f>
         <v>0x01</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
@@ -2030,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -2058,18 +2051,18 @@
       <c r="J12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="41"/>
+      <c r="K12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="44"/>
       <c r="S12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2094,20 +2087,20 @@
       <c r="Z12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="37" t="s">
+      <c r="AA12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="40" t="s">
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="39"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="33"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2135,18 +2128,18 @@
       <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="42" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="43"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="45"/>
       <c r="S13" s="18">
         <v>0</v>
       </c>
@@ -2171,20 +2164,20 @@
       <c r="Z13" s="17">
         <v>0</v>
       </c>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="42" t="s">
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="36"/>
-    </row>
-    <row r="14" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="40"/>
+    </row>
+    <row r="14" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2212,18 +2205,18 @@
       <c r="J14" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="41"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="44"/>
       <c r="S14" s="21" t="s">
         <v>37</v>
       </c>
@@ -2248,99 +2241,99 @@
       <c r="Z14" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="33" t="s">
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="38"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C10,2))+1,2))</f>
         <v>0x02</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
         <v>35</v>
@@ -2439,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
@@ -2491,26 +2484,26 @@
       <c r="R19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="S19" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="39"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="S19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="33"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
@@ -2562,26 +2555,26 @@
       <c r="R20" s="17">
         <v>1</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="36"/>
-    </row>
-    <row r="21" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="40"/>
+    </row>
+    <row r="21" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2633,105 +2626,105 @@
       <c r="R21" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="32"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="38"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="44" t="str">
+      <c r="C24" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C17,2))+1,2))</f>
         <v>0x03</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
@@ -2830,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
@@ -3133,86 +3126,86 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="44" t="str">
+      <c r="C31" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C24,2))+1,2))</f>
         <v>0x04</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="s">
         <v>35</v>
@@ -3311,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
@@ -3614,86 +3607,86 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="44" t="str">
+      <c r="C38" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C31,2))+1,2))</f>
         <v>0x05</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
         <v>35</v>
@@ -3792,203 +3785,203 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="39"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="33"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="36"/>
-    </row>
-    <row r="42" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="40"/>
+    </row>
+    <row r="42" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="32"/>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="38"/>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-    </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="44" t="str">
+      <c r="C45" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C38,2))+1,2))</f>
         <v>0x06</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-    </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
         <v>35</v>
@@ -4087,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>11</v>
       </c>
@@ -4188,7 +4181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>10</v>
       </c>
@@ -4289,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
@@ -4390,7 +4383,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -4425,86 +4418,86 @@
       <c r="AG50"/>
       <c r="AH50"/>
     </row>
-    <row r="51" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-    </row>
-    <row r="52" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+    </row>
+    <row r="52" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="44" t="str">
+      <c r="C52" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C45,2))+1,2))</f>
         <v>0x07</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="44"/>
-      <c r="AD52" s="44"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="44"/>
-    </row>
-    <row r="53" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31"/>
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="31"/>
+      <c r="AH52" s="31"/>
+    </row>
+    <row r="53" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="10" t="s">
         <v>35</v>
@@ -4603,124 +4596,124 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="38"/>
-      <c r="AE54" s="38"/>
-      <c r="AF54" s="38"/>
-      <c r="AG54" s="38"/>
-      <c r="AH54" s="39"/>
-    </row>
-    <row r="55" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="33"/>
+    </row>
+    <row r="55" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="36"/>
-    </row>
-    <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="40"/>
+    </row>
+    <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="31"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="32"/>
-    </row>
-    <row r="57" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="38"/>
+    </row>
+    <row r="57" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -4755,86 +4748,86 @@
       <c r="AG57"/>
       <c r="AH57"/>
     </row>
-    <row r="58" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="45"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-    </row>
-    <row r="59" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+    </row>
+    <row r="59" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="44" t="str">
+      <c r="C59" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C52,2))+1,2))</f>
         <v>0x08</v>
       </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="44"/>
-      <c r="AD59" s="44"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="44"/>
-      <c r="AG59" s="44"/>
-      <c r="AH59" s="44"/>
-    </row>
-    <row r="60" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="31"/>
+      <c r="AE59" s="31"/>
+      <c r="AF59" s="31"/>
+      <c r="AG59" s="31"/>
+      <c r="AH59" s="31"/>
+    </row>
+    <row r="60" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
         <v>35</v>
@@ -4933,7 +4926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>11</v>
       </c>
@@ -5034,7 +5027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>10</v>
       </c>
@@ -5135,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>9</v>
       </c>
@@ -5224,19 +5217,19 @@
         <v>37</v>
       </c>
       <c r="AE63" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF63" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG63" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AF63" s="19" t="s">
+      <c r="AH63" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="AG63" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH63" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -5271,86 +5264,86 @@
       <c r="AG64"/>
       <c r="AH64"/>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="45"/>
-      <c r="V65" s="45"/>
-      <c r="W65" s="45"/>
-      <c r="X65" s="45"/>
-      <c r="Y65" s="45"/>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="45"/>
-      <c r="AC65" s="45"/>
-      <c r="AD65" s="45"/>
-      <c r="AE65" s="45"/>
-      <c r="AF65" s="45"/>
-      <c r="AG65" s="45"/>
-      <c r="AH65" s="45"/>
-    </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="30"/>
+      <c r="AG65" s="30"/>
+      <c r="AH65" s="30"/>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="44" t="str">
+      <c r="C66" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C59,2))+1,2))</f>
         <v>0x09</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="44"/>
-      <c r="AA66" s="44"/>
-      <c r="AB66" s="44"/>
-      <c r="AC66" s="44"/>
-      <c r="AD66" s="44"/>
-      <c r="AE66" s="44"/>
-      <c r="AF66" s="44"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="44"/>
-    </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="31"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="31"/>
+      <c r="Z66" s="31"/>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="31"/>
+      <c r="AE66" s="31"/>
+      <c r="AF66" s="31"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="31"/>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="10" t="s">
         <v>35</v>
@@ -5449,7 +5442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>10</v>
       </c>
@@ -5651,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>9</v>
       </c>
@@ -5752,86 +5745,86 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="45"/>
-      <c r="V72" s="45"/>
-      <c r="W72" s="45"/>
-      <c r="X72" s="45"/>
-      <c r="Y72" s="45"/>
-      <c r="Z72" s="45"/>
-      <c r="AA72" s="45"/>
-      <c r="AB72" s="45"/>
-      <c r="AC72" s="45"/>
-      <c r="AD72" s="45"/>
-      <c r="AE72" s="45"/>
-      <c r="AF72" s="45"/>
-      <c r="AG72" s="45"/>
-      <c r="AH72" s="45"/>
-    </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="30"/>
+      <c r="AG72" s="30"/>
+      <c r="AH72" s="30"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="44" t="str">
+      <c r="C73" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C66,2))+1,2))</f>
         <v>0x0A</v>
       </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
-      <c r="Y73" s="44"/>
-      <c r="Z73" s="44"/>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="44"/>
-      <c r="AC73" s="44"/>
-      <c r="AD73" s="44"/>
-      <c r="AE73" s="44"/>
-      <c r="AF73" s="44"/>
-      <c r="AG73" s="44"/>
-      <c r="AH73" s="44"/>
-    </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="31"/>
+      <c r="AE73" s="31"/>
+      <c r="AF73" s="31"/>
+      <c r="AG73" s="31"/>
+      <c r="AH73" s="31"/>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="10" t="s">
         <v>35</v>
@@ -5930,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>11</v>
       </c>
@@ -6031,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>10</v>
       </c>
@@ -6132,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>9</v>
       </c>
@@ -6233,86 +6226,86 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="45"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-      <c r="W79" s="45"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
-      <c r="AB79" s="45"/>
-      <c r="AC79" s="45"/>
-      <c r="AD79" s="45"/>
-      <c r="AE79" s="45"/>
-      <c r="AF79" s="45"/>
-      <c r="AG79" s="45"/>
-      <c r="AH79" s="45"/>
-    </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
+      <c r="AE79" s="30"/>
+      <c r="AF79" s="30"/>
+      <c r="AG79" s="30"/>
+      <c r="AH79" s="30"/>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="44" t="str">
+      <c r="C80" s="31" t="str">
         <f>CONCATENATE("0x",DEC2HEX(HEX2DEC(RIGHT(C73,2))+1,2))</f>
         <v>0x0B</v>
       </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="44"/>
-      <c r="AA80" s="44"/>
-      <c r="AB80" s="44"/>
-      <c r="AC80" s="44"/>
-      <c r="AD80" s="44"/>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-    </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="31"/>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="31"/>
+      <c r="Z80" s="31"/>
+      <c r="AA80" s="31"/>
+      <c r="AB80" s="31"/>
+      <c r="AC80" s="31"/>
+      <c r="AD80" s="31"/>
+      <c r="AE80" s="31"/>
+      <c r="AF80" s="31"/>
+      <c r="AG80" s="31"/>
+      <c r="AH80" s="31"/>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="10" t="s">
         <v>35</v>
@@ -6411,7 +6404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>10</v>
       </c>
@@ -6613,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>9</v>
       </c>
@@ -6714,15 +6707,47 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
       <c r="Z86" s="25"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AB87" s="25"/>
       <c r="AE87" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="C41:AH41"/>
+    <mergeCell ref="C40:AH40"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="S21:AH21"/>
+    <mergeCell ref="S20:AH20"/>
+    <mergeCell ref="S19:AH19"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C66:AH66"/>
+    <mergeCell ref="C80:AH80"/>
+    <mergeCell ref="C65:AH65"/>
+    <mergeCell ref="C72:AH72"/>
+    <mergeCell ref="C73:AH73"/>
+    <mergeCell ref="C79:AH79"/>
+    <mergeCell ref="C51:AH51"/>
+    <mergeCell ref="C52:AH52"/>
+    <mergeCell ref="C58:AH58"/>
+    <mergeCell ref="C59:AH59"/>
+    <mergeCell ref="C56:AH56"/>
+    <mergeCell ref="C55:AH55"/>
+    <mergeCell ref="C54:AH54"/>
+    <mergeCell ref="C45:AH45"/>
+    <mergeCell ref="C23:AH23"/>
+    <mergeCell ref="C24:AH24"/>
+    <mergeCell ref="C30:AH30"/>
+    <mergeCell ref="C31:AH31"/>
+    <mergeCell ref="C37:AH37"/>
+    <mergeCell ref="C38:AH38"/>
+    <mergeCell ref="C44:AH44"/>
+    <mergeCell ref="C42:AH42"/>
     <mergeCell ref="C2:AH2"/>
     <mergeCell ref="C3:AH3"/>
     <mergeCell ref="C9:AH9"/>
@@ -6739,38 +6764,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:R14"/>
-    <mergeCell ref="C45:AH45"/>
-    <mergeCell ref="C23:AH23"/>
-    <mergeCell ref="C24:AH24"/>
-    <mergeCell ref="C30:AH30"/>
-    <mergeCell ref="C31:AH31"/>
-    <mergeCell ref="C37:AH37"/>
-    <mergeCell ref="C38:AH38"/>
-    <mergeCell ref="C44:AH44"/>
-    <mergeCell ref="C51:AH51"/>
-    <mergeCell ref="C52:AH52"/>
-    <mergeCell ref="C58:AH58"/>
-    <mergeCell ref="C59:AH59"/>
-    <mergeCell ref="C56:AH56"/>
-    <mergeCell ref="C55:AH55"/>
-    <mergeCell ref="C54:AH54"/>
-    <mergeCell ref="C66:AH66"/>
-    <mergeCell ref="C80:AH80"/>
-    <mergeCell ref="C65:AH65"/>
-    <mergeCell ref="C72:AH72"/>
-    <mergeCell ref="C73:AH73"/>
-    <mergeCell ref="C79:AH79"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="C41:AH41"/>
-    <mergeCell ref="C40:AH40"/>
-    <mergeCell ref="C17:AH17"/>
-    <mergeCell ref="S21:AH21"/>
-    <mergeCell ref="C42:AH42"/>
-    <mergeCell ref="S20:AH20"/>
-    <mergeCell ref="S19:AH19"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6782,25 +6775,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -6835,7 +6827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="str">
         <f>'AVS DCOM Registers'!C3</f>
         <v>0x00</v>
@@ -6880,7 +6872,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -6916,7 +6908,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -6952,7 +6944,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -6986,7 +6978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -7022,7 +7014,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7058,7 +7050,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -7094,7 +7086,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -7128,7 +7120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
@@ -7164,7 +7156,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -7200,7 +7192,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -7236,7 +7228,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
@@ -7272,7 +7264,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -7306,7 +7298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -7343,7 +7335,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="str">
         <f>'AVS DCOM Registers'!C10</f>
         <v>0x01</v>
@@ -7389,7 +7381,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
@@ -7426,7 +7418,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -7462,7 +7454,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
@@ -7496,7 +7488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -7533,7 +7525,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
@@ -7570,7 +7562,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -7606,7 +7598,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -7640,7 +7632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="str">
         <f>'AVS DCOM Registers'!C17</f>
         <v>0x02</v>
@@ -7686,7 +7678,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -7722,7 +7714,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -7758,7 +7750,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
@@ -7792,7 +7784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="47" t="str">
         <f>'AVS DCOM Registers'!C24</f>
         <v>0x03</v>
@@ -7837,7 +7829,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
@@ -7873,7 +7865,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -7908,7 +7900,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="str">
         <f>'AVS DCOM Registers'!C31</f>
         <v>0x04</v>
@@ -7953,7 +7945,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -7987,7 +7979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="str">
         <f>'AVS DCOM Registers'!C38</f>
         <v>0x05</v>
@@ -8033,7 +8025,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="47" t="str">
         <f>'AVS DCOM Registers'!C45</f>
         <v>0x06</v>
@@ -8078,7 +8070,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
@@ -8114,7 +8106,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -8150,7 +8142,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
@@ -8186,7 +8178,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
@@ -8220,7 +8212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="str">
         <f>'AVS DCOM Registers'!C52</f>
         <v>0x07</v>
@@ -8266,7 +8258,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="str">
         <f>'AVS DCOM Registers'!C59</f>
         <v>0x08</v>
@@ -8311,7 +8303,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
@@ -8347,7 +8339,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
@@ -8383,7 +8375,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
@@ -8419,7 +8411,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
@@ -8453,7 +8445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="str">
         <f>'AVS DCOM Registers'!C66</f>
         <v>0x09</v>
@@ -8498,7 +8490,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
@@ -8534,7 +8526,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
@@ -8568,7 +8560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
@@ -8604,7 +8596,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="49"/>
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
@@ -8638,7 +8630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="str">
         <f>'AVS DCOM Registers'!C73</f>
         <v>0x0A</v>
@@ -8683,7 +8675,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
@@ -8719,7 +8711,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="49"/>
       <c r="C53" s="49"/>
       <c r="D53" s="49"/>
@@ -8753,7 +8745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="47" t="str">
         <f>'AVS DCOM Registers'!C80</f>
         <v>0x0B</v>
@@ -8798,7 +8790,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
@@ -8834,7 +8826,7 @@
         <v>R/W</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="D56" s="49"/>
@@ -8870,6 +8862,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="D3:D16"/>
@@ -8886,20 +8892,6 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8910,26 +8902,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="23" customWidth="1"/>
     <col min="12" max="12" width="39" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="24" t="s">
         <v>83</v>
       </c>
@@ -8959,7 +8950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D3</f>
         <v>spw_link_config_status_reg</v>
@@ -8990,7 +8981,7 @@
         <v>#define DCOM_LINK_CFG_STAT_REG_OFST      0x00</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D17</f>
         <v>spw_timecode_reg</v>
@@ -9021,7 +9012,7 @@
         <v>#define DCOM_TIMECODE_REG_OFST           0x01</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D25</f>
         <v>data_buffers_status_reg</v>
@@ -9052,7 +9043,7 @@
         <v>#define DCOM_DATA_BUFF_STAT_REG_OFST     0x02</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D29</f>
         <v>data_controller_config_reg</v>
@@ -9083,7 +9074,7 @@
         <v>#define DCOM_DATA_CRTLR_CFG_REG_OFST     0x03</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D32</f>
         <v>data_scheduler_timer_config_reg</v>
@@ -9096,7 +9087,7 @@
         <v>173</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>113</v>
@@ -9114,7 +9105,7 @@
         <v>#define DCOM_DATA_SCHTMR_CFG_REG_OFST    0x04</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D34</f>
         <v>data_scheduler_timer_clkdiv_reg</v>
@@ -9127,7 +9118,7 @@
         <v>173</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>113</v>
@@ -9145,7 +9136,7 @@
         <v>#define DCOM_DATA_SCHTMR_CLKDIV_REG_OFST 0x05</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D35</f>
         <v>data_scheduler_timer_status_reg</v>
@@ -9158,7 +9149,7 @@
         <v>173</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>113</v>
@@ -9176,7 +9167,7 @@
         <v>#define DCOM_DATA_SCHTMR_STAT_REG_OFST   0x06</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D40</f>
         <v>data_scheduler_timer_time_reg</v>
@@ -9189,7 +9180,7 @@
         <v>173</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>113</v>
@@ -9207,7 +9198,7 @@
         <v>#define DCOM_DATA_SCHTMR_TIME_REG_OFST   0x07</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D41</f>
         <v>data_scheduler_timer_control_reg</v>
@@ -9220,7 +9211,7 @@
         <v>173</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>113</v>
@@ -9238,7 +9229,7 @@
         <v>#define DCOM_DATA_SCHTMR_CTRL_REG_OFST   0x08</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D46</f>
         <v>dcom_irq_control_reg</v>
@@ -9269,7 +9260,7 @@
         <v>#define DCOM_IRQ_CTRL_REG_OFST           0x09</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D51</f>
         <v>dcom_irq_flags_reg</v>
@@ -9300,7 +9291,7 @@
         <v>#define DCOM_IRQ_FLAG_REG_OFST           0x0A</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D54</f>
         <v>dcom_irq_flags_clear_reg</v>
@@ -9331,7 +9322,7 @@
         <v>#define DCOM_IRQ_FLAG_CLR_REG_OFST       0x0B</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="24" t="s">
         <v>115</v>
       </c>
@@ -9365,7 +9356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E3</f>
         <v>spw_lnkcfg_disconnect</v>
@@ -9403,7 +9394,7 @@
         <v>#define DCOM_SPW_LNKCFG_DISCONNECT_MSK   (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E4</f>
         <v>spw_lnkcfg_linkstart</v>
@@ -9441,7 +9432,7 @@
         <v>#define DCOM_SPW_LNKCFG_LINKSTART_MSK    (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E5</f>
         <v>spw_lnkcfg_autostart</v>
@@ -9479,7 +9470,7 @@
         <v>#define DCOM_SPW_LNKCFG_AUTOSTART_MSK    (1 &lt;&lt; 2)</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E7</f>
         <v>spw_link_running</v>
@@ -9517,7 +9508,7 @@
         <v>#define DCOM_SPW_LNKSTAT_RUNNING_MSK     (1 &lt;&lt; 8)</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E8</f>
         <v>spw_link_connecting</v>
@@ -9555,7 +9546,7 @@
         <v>#define DCOM_SPW_LNKSTAT_CONNECTING_MSK  (1 &lt;&lt; 9)</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E9</f>
         <v>spw_link_started</v>
@@ -9593,7 +9584,7 @@
         <v>#define DCOM_SPW_LNKSTAT_STARTED_MSK     (1 &lt;&lt; 10)</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E11</f>
         <v>spw_err_disconnect</v>
@@ -9631,7 +9622,7 @@
         <v>#define DCOM_SPW_LNKERR_DISCONNECT_MSK   (1 &lt;&lt; 16)</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E12</f>
         <v>spw_err_parity</v>
@@ -9669,7 +9660,7 @@
         <v>#define DCOM_SPW_LNKERR_PARITY_MSK       (1 &lt;&lt; 17)</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E13</f>
         <v>spw_err_escape</v>
@@ -9707,7 +9698,7 @@
         <v>#define DCOM_SPW_LNKERR_ESCAPE_MSK       (1 &lt;&lt; 18)</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E14</f>
         <v>spw_err_credit</v>
@@ -9745,7 +9736,7 @@
         <v>#define DCOM_SPW_LNKERR_CREDIT_MSK       (1 &lt;&lt; 19)</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E16</f>
         <v>spw_lnkcfg_txdivcnt</v>
@@ -9783,7 +9774,7 @@
         <v>#define DCOM_SPW_LNKCFG_TXDIVCNT_MSK     (0xFF &lt;&lt; 24)</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D28" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C28,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -9794,7 +9785,7 @@
       </c>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E17</f>
         <v>timecode_tx_time</v>
@@ -9832,7 +9823,7 @@
         <v>#define DCOM_TC_TX_TIME_MSK              (0b111111 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E18</f>
         <v>timecode_tx_control</v>
@@ -9852,14 +9843,14 @@
         <v>173</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>124</v>
       </c>
       <c r="L30" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>DCOM_TX_TX_CONTROL_MSK</v>
+        <v>DCOM_TC_TX_CONTROL_MSK</v>
       </c>
       <c r="M30" s="23">
         <f t="shared" ref="M30:M34" si="12">LEN(L30)</f>
@@ -9867,10 +9858,10 @@
       </c>
       <c r="O30" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>#define DCOM_TX_TX_CONTROL_MSK           (0b11 &lt;&lt; 6)</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+        <v>#define DCOM_TC_TX_CONTROL_MSK           (0b11 &lt;&lt; 6)</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E19</f>
         <v>timecode_tx_send</v>
@@ -9890,7 +9881,7 @@
         <v>173</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>124</v>
@@ -9908,7 +9899,7 @@
         <v>#define DCOM_TC_TX_SEND_MSK              (1 &lt;&lt; 8)</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E21</f>
         <v>timecode_rx_time</v>
@@ -9928,7 +9919,7 @@
         <v>173</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>124</v>
@@ -9946,7 +9937,7 @@
         <v>#define DCOM_TC_RX_TIME_MSK              (0b111111 &lt;&lt; 16)</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E22</f>
         <v>timecode_rx_control</v>
@@ -9966,14 +9957,14 @@
         <v>173</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>DCOM_TX_RX_CONTROL_MSK</v>
+        <v>DCOM_TC_RX_CONTROL_MSK</v>
       </c>
       <c r="M33" s="23">
         <f t="shared" si="12"/>
@@ -9981,10 +9972,10 @@
       </c>
       <c r="O33" s="28" t="str">
         <f t="shared" si="11"/>
-        <v>#define DCOM_TX_RX_CONTROL_MSK           (0b11 &lt;&lt; 22)</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+        <v>#define DCOM_TC_RX_CONTROL_MSK           (0b11 &lt;&lt; 22)</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E23</f>
         <v>timecode_rx_received</v>
@@ -10004,7 +9995,7 @@
         <v>173</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J34" s="23" t="s">
         <v>124</v>
@@ -10022,7 +10013,7 @@
         <v>#define DCOM_TC_RX_RECEIVED_MSK          (1 &lt;&lt; 24)</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D35" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C35,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10033,7 +10024,7 @@
       </c>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E25</f>
         <v>data_buffer_used</v>
@@ -10053,7 +10044,7 @@
         <v>173</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J36" s="23" t="s">
         <v>124</v>
@@ -10071,7 +10062,7 @@
         <v>#define DCOM_DATA_BUFF_STAT_USED_MSK     (0xFFFF &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E26</f>
         <v>data_buffer_empty</v>
@@ -10091,7 +10082,7 @@
         <v>173</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J37" s="23" t="s">
         <v>124</v>
@@ -10109,7 +10100,7 @@
         <v>#define DCOM_DATA_BUFF_STAT_EMPTY_MSK    (1 &lt;&lt; 16)</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E27</f>
         <v>data_buffer_full</v>
@@ -10129,7 +10120,7 @@
         <v>173</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>124</v>
@@ -10147,7 +10138,7 @@
         <v>#define DCOM_DATA_BUFF_STAT_FULL_MSK     (1 &lt;&lt; 17)</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C39,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10158,7 +10149,7 @@
       </c>
       <c r="O39" s="28"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E29</f>
         <v>send_eop</v>
@@ -10178,7 +10169,7 @@
         <v>173</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>124</v>
@@ -10196,7 +10187,7 @@
         <v>#define DCOM_DATA_CTRLR_CFG_SEND_EOP_MSK (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E30</f>
         <v>send_eep</v>
@@ -10216,7 +10207,7 @@
         <v>173</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J41" s="23" t="s">
         <v>124</v>
@@ -10234,7 +10225,7 @@
         <v>#define DCOM_DATA_CTRLR_CFG_SEND_EEP_MSK (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D42" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C42,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10245,7 +10236,7 @@
       </c>
       <c r="O42" s="28"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E32</f>
         <v>timer_start_on_sync</v>
@@ -10265,7 +10256,7 @@
         <v>173</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J43" s="23" t="s">
         <v>124</v>
@@ -10283,7 +10274,7 @@
         <v>#define DCOM_DATA_SCHTMR_CFG_STSYNC_MSK  (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D44" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C44,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10294,7 +10285,7 @@
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E34</f>
         <v>timer_clk_div</v>
@@ -10314,7 +10305,7 @@
         <v>173</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J45" s="23" t="s">
         <v>124</v>
@@ -10332,7 +10323,7 @@
         <v>#define DCOM_DATA_SCHTMR_CLKDIV_MSK      (0xFFFFFFFF &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D46" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C46,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10343,7 +10334,7 @@
       </c>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E35</f>
         <v>timer_stopped</v>
@@ -10363,7 +10354,7 @@
         <v>173</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J47" s="23" t="s">
         <v>124</v>
@@ -10381,7 +10372,7 @@
         <v>#define DCOM_DATA_SCHTMR_ST_STOPPED_MSK  (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E36</f>
         <v>timer_started</v>
@@ -10401,7 +10392,7 @@
         <v>173</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>124</v>
@@ -10419,7 +10410,7 @@
         <v>#define DCOM_DATA_SCHTMR_ST_STARTED_MSK  (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E37</f>
         <v>timer_running</v>
@@ -10439,7 +10430,7 @@
         <v>173</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>124</v>
@@ -10457,7 +10448,7 @@
         <v>#define DCOM_DATA_SCHTMR_ST_RUNNING_MSK  (1 &lt;&lt; 2)</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E38</f>
         <v>timer_cleared</v>
@@ -10477,7 +10468,7 @@
         <v>173</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J50" s="23" t="s">
         <v>124</v>
@@ -10495,7 +10486,7 @@
         <v>#define DCOM_DATA_SCHTMR_ST_CLEARED_MSK  (1 &lt;&lt; 3)</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D51" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C51,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10506,7 +10497,7 @@
       </c>
       <c r="O51" s="28"/>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E40</f>
         <v>timer_time</v>
@@ -10526,7 +10517,7 @@
         <v>173</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J52" s="23" t="s">
         <v>124</v>
@@ -10544,7 +10535,7 @@
         <v>#define DCOM_DATA_SCHTMR_TIME_MSK        (0xFFFFFFFF &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D53" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C53,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10555,7 +10546,7 @@
       </c>
       <c r="O53" s="28"/>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E41</f>
         <v>timer_start</v>
@@ -10575,7 +10566,7 @@
         <v>173</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J54" s="23" t="s">
         <v>124</v>
@@ -10593,7 +10584,7 @@
         <v>#define DCOM_DATA_SCHTMR_CTRL_START_MSK  (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E42</f>
         <v>timer_run</v>
@@ -10613,7 +10604,7 @@
         <v>173</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J55" s="23" t="s">
         <v>124</v>
@@ -10631,7 +10622,7 @@
         <v>#define DCOM_DATA_SCHTMR_CTRL_RUN_MSK    (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E43</f>
         <v>timer_stop</v>
@@ -10651,7 +10642,7 @@
         <v>173</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J56" s="23" t="s">
         <v>124</v>
@@ -10669,7 +10660,7 @@
         <v>#define DCOM_DATA_SCHTMR_CTRL_STOP_MSK   (1 &lt;&lt; 2)</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E44</f>
         <v>timer_clear</v>
@@ -10689,7 +10680,7 @@
         <v>173</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J57" s="23" t="s">
         <v>124</v>
@@ -10707,7 +10698,7 @@
         <v>#define DCOM_DATA_SCHTMR_CTRL_CLR_MSK    (1 &lt;&lt; 3)</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D58" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C58,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10718,7 +10709,7 @@
       </c>
       <c r="O58" s="28"/>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E46</f>
         <v>dcom_tx_end_en</v>
@@ -10738,7 +10729,7 @@
         <v>173</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J59" s="23" t="s">
         <v>124</v>
@@ -10756,7 +10747,7 @@
         <v>#define DCOM_IRQ_CTRL_TX_END_EN_MSK      (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C60" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E47</f>
         <v>dcom_tx_begin_en</v>
@@ -10776,7 +10767,7 @@
         <v>173</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J60" s="23" t="s">
         <v>124</v>
@@ -10794,7 +10785,7 @@
         <v>#define DCOM_IRQ_CTRL_TX_BEGIN_EN_MSK    (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C61" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E49</f>
         <v>dcom_global_irq_en</v>
@@ -10814,7 +10805,7 @@
         <v>173</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J61" s="23" t="s">
         <v>124</v>
@@ -10832,7 +10823,7 @@
         <v>#define DCOM_IRQ_CTRL_GLOBAL_EN_MSK      (1 &lt;&lt; 8)</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D62" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C62,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10843,7 +10834,7 @@
       </c>
       <c r="O62" s="28"/>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C63" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E51</f>
         <v>dcom_tx_end_flag</v>
@@ -10863,7 +10854,7 @@
         <v>173</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J63" s="23" t="s">
         <v>124</v>
@@ -10881,7 +10872,7 @@
         <v>#define DCOM_IRQ_FLG_TX_END_FLAG_MSK     (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C64" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E52</f>
         <v>dcom_tx_begin_flag</v>
@@ -10901,7 +10892,7 @@
         <v>173</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>124</v>
@@ -10919,7 +10910,7 @@
         <v>#define DCOM_IRQ_FLG_TX_BEGIN_FLAG_MSK   (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D65" s="23" t="str">
         <f>_xlfn.IFNA(INDEX('AVS DCOM Registers TABLE'!$K$2:$K$56,MATCH('NIOS defines'!C65,'AVS DCOM Registers TABLE'!$E$2:$E$56,0)),"")</f>
         <v/>
@@ -10930,7 +10921,7 @@
       </c>
       <c r="O65" s="28"/>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C66" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E54</f>
         <v>dcom_tx_end_flag_clear</v>
@@ -10950,7 +10941,7 @@
         <v>173</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J66" s="23" t="s">
         <v>124</v>
@@ -10968,7 +10959,7 @@
         <v>#define DCOM_IRQ_FC_TX_END_FLG_CLR_MSK   (1 &lt;&lt; 0)</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!E55</f>
         <v>dcom_tx_begin_flag_clear</v>
@@ -10988,7 +10979,7 @@
         <v>173</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J67" s="23" t="s">
         <v>124</v>
@@ -11006,103 +10997,103 @@
         <v>#define DCOM_IRQ_FC_TX_BEGIN_FLG_CLR_MSK (1 &lt;&lt; 1)</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O69" s="28"/>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O70" s="28"/>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O71" s="28"/>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O72" s="28"/>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O73" s="28"/>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O74" s="28"/>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O75" s="28"/>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O76" s="28"/>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O77" s="28"/>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O78" s="28"/>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O79" s="28"/>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O80" s="28"/>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O81" s="28"/>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O83" s="28"/>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O84" s="28"/>
     </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O85" s="28"/>
     </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O86" s="28"/>
     </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O87" s="28"/>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O88" s="28"/>
     </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O89" s="28"/>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O90" s="28"/>
     </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O91" s="28"/>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O92" s="28"/>
     </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O93" s="28"/>
     </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O94" s="28"/>
     </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O95" s="28"/>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O96" s="28"/>
     </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O97" s="28"/>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O98" s="28"/>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O99" s="28"/>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O100" s="28"/>
     </row>
   </sheetData>
@@ -11116,31 +11107,28 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:P107"/>
   <sheetViews>
-    <sheetView topLeftCell="G142" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P158"/>
-    </sheetView>
-    <sheetView zoomScaleNormal="100" workbookViewId="1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E2" s="26" t="s">
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E3" s="26" t="s">
         <v>95</v>
       </c>
@@ -11148,7 +11136,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E4" s="26" t="s">
         <v>96</v>
       </c>
@@ -11156,9 +11144,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="23" t="str">
         <f>IF(C7="R",$F$4,$F$3)</f>
@@ -11186,7 +11174,7 @@
         <v>type t_dcom_spw_link_status_rd_reg is record</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11221,7 +11209,7 @@
         <v xml:space="preserve">  spw_link_running : std_logic;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11256,7 +11244,7 @@
         <v xml:space="preserve">  spw_link_connecting : std_logic;</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11291,7 +11279,7 @@
         <v xml:space="preserve">  spw_link_started : std_logic;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11326,7 +11314,7 @@
         <v xml:space="preserve">  spw_err_disconnect : std_logic;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11361,7 +11349,7 @@
         <v xml:space="preserve">  spw_err_parity : std_logic;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11396,7 +11384,7 @@
         <v xml:space="preserve">  spw_err_escape : std_logic;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>$F6</f>
         <v>t_dcom_spw_link_status_rd_reg</v>
@@ -11431,7 +11419,7 @@
         <v xml:space="preserve">  spw_err_credit : std_logic;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
@@ -11454,15 +11442,15 @@
         <v>end record t_dcom_spw_link_status_rd_reg;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P15" t="str">
-        <f t="shared" ref="P6:P72" si="1">CONCATENATE(E15,F15,G15,H15,I15,J15,K15,L15,M15,N15)</f>
+        <f t="shared" ref="P15:P72" si="1">CONCATENATE(E15,F15,G15,H15,I15,J15,K15,L15,M15,N15)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>IF(C17="R",$F$4,$F$3)</f>
@@ -11490,7 +11478,7 @@
         <v>type t_dcom_spw_link_config_wr_reg is record</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
         <f>$F16</f>
         <v>t_dcom_spw_link_config_wr_reg</v>
@@ -11524,7 +11512,7 @@
         <v xml:space="preserve">  spw_lnkcfg_disconnect : std_logic;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>$F16</f>
         <v>t_dcom_spw_link_config_wr_reg</v>
@@ -11559,7 +11547,7 @@
         <v xml:space="preserve">  spw_lnkcfg_linkstart : std_logic;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>$F16</f>
         <v>t_dcom_spw_link_config_wr_reg</v>
@@ -11594,7 +11582,7 @@
         <v xml:space="preserve">  spw_lnkcfg_autostart : std_logic;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>$F16</f>
         <v>t_dcom_spw_link_config_wr_reg</v>
@@ -11640,7 +11628,7 @@
         <v xml:space="preserve">  spw_lnkcfg_txdivcnt : std_logic_vector(7 downto 0);</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
@@ -11663,15 +11651,15 @@
         <v>end record t_dcom_spw_link_config_wr_reg;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P22" t="str">
-        <f t="shared" ref="P21:P22" si="2">CONCATENATE(E22,F22,G22,H22,I22,J22,K22,L22,M22,N22)</f>
+        <f t="shared" ref="P22" si="2">CONCATENATE(E22,F22,G22,H22,I22,J22,K22,L22,M22,N22)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>IF(C24="R",$F$4,$F$3)</f>
@@ -11699,7 +11687,7 @@
         <v>type t_dcom_spw_timecode_rx_rd_reg is record</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="str">
         <f>$F23</f>
         <v>t_dcom_spw_timecode_rx_rd_reg</v>
@@ -11745,7 +11733,7 @@
         <v xml:space="preserve">  timecode_rx_time : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="str">
         <f>$F23</f>
         <v>t_dcom_spw_timecode_rx_rd_reg</v>
@@ -11791,7 +11779,7 @@
         <v xml:space="preserve">  timecode_rx_control : std_logic_vector(1 downto 0);</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="str">
         <f>$F23</f>
         <v>t_dcom_spw_timecode_rx_rd_reg</v>
@@ -11825,7 +11813,7 @@
         <v xml:space="preserve">  timecode_rx_received : std_logic;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>47</v>
       </c>
@@ -11848,15 +11836,15 @@
         <v>end record t_dcom_spw_timecode_rx_rd_reg;</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" s="23" t="str">
         <f>IF(C30="R",$F$4,$F$3)</f>
@@ -11884,7 +11872,7 @@
         <v>type t_dcom_spw_timecode_tx_rxctrl_wr_reg is record</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="str">
         <f>$F29</f>
         <v>t_dcom_spw_timecode_tx_rxctrl_wr_reg</v>
@@ -11930,7 +11918,7 @@
         <v xml:space="preserve">  timecode_tx_time : std_logic_vector(5 downto 0);</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="str">
         <f>$F29</f>
         <v>t_dcom_spw_timecode_tx_rxctrl_wr_reg</v>
@@ -11976,7 +11964,7 @@
         <v xml:space="preserve">  timecode_tx_control : std_logic_vector(1 downto 0);</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="str">
         <f>$F29</f>
         <v>t_dcom_spw_timecode_tx_rxctrl_wr_reg</v>
@@ -12011,7 +11999,7 @@
         <v xml:space="preserve">  timecode_tx_send : std_logic;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="str">
         <f>$F29</f>
         <v>t_dcom_spw_timecode_tx_rxctrl_wr_reg</v>
@@ -12045,7 +12033,7 @@
         <v xml:space="preserve">  timecode_rx_received_clr : std_logic;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>47</v>
       </c>
@@ -12068,7 +12056,7 @@
         <v>end record t_dcom_spw_timecode_tx_rxctrl_wr_reg;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D25</f>
         <v>data_buffers_status_reg</v>
@@ -12099,7 +12087,7 @@
         <v>type t_dcom_data_buffers_status_rd_reg is record</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="str">
         <f>$F36</f>
         <v>t_dcom_data_buffers_status_rd_reg</v>
@@ -12145,7 +12133,7 @@
         <v xml:space="preserve">  data_buffer_used : std_logic_vector(15 downto 0);</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="str">
         <f>$F36</f>
         <v>t_dcom_data_buffers_status_rd_reg</v>
@@ -12180,7 +12168,7 @@
         <v xml:space="preserve">  data_buffer_empty : std_logic;</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="str">
         <f>$F36</f>
         <v>t_dcom_data_buffers_status_rd_reg</v>
@@ -12215,7 +12203,7 @@
         <v xml:space="preserve">  data_buffer_full : std_logic;</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
@@ -12238,13 +12226,13 @@
         <v>end record t_dcom_data_buffers_status_rd_reg;</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D29</f>
         <v>data_controller_config_reg</v>
@@ -12275,7 +12263,7 @@
         <v>type t_dcom_data_controller_config_wr_reg is record</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="str">
         <f>$F42</f>
         <v>t_dcom_data_controller_config_wr_reg</v>
@@ -12310,7 +12298,7 @@
         <v xml:space="preserve">  send_eop : std_logic;</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="str">
         <f>$F42</f>
         <v>t_dcom_data_controller_config_wr_reg</v>
@@ -12345,7 +12333,7 @@
         <v xml:space="preserve">  send_eep : std_logic;</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
         <v>47</v>
       </c>
@@ -12368,13 +12356,13 @@
         <v>end record t_dcom_data_controller_config_wr_reg;</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D32</f>
         <v>data_scheduler_timer_config_reg</v>
@@ -12405,7 +12393,7 @@
         <v>type t_dcom_data_scheduler_timer_config_wr_reg is record</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="str">
         <f>$F47</f>
         <v>t_dcom_data_scheduler_timer_config_wr_reg</v>
@@ -12440,7 +12428,7 @@
         <v xml:space="preserve">  timer_start_on_sync : std_logic;</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
@@ -12463,13 +12451,13 @@
         <v>end record t_dcom_data_scheduler_timer_config_wr_reg;</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D34</f>
         <v>data_scheduler_timer_clkdiv_reg</v>
@@ -12500,7 +12488,7 @@
         <v>type t_dcom_data_scheduler_timer_clkdiv_wr_reg is record</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="str">
         <f>$F51</f>
         <v>t_dcom_data_scheduler_timer_clkdiv_wr_reg</v>
@@ -12546,7 +12534,7 @@
         <v xml:space="preserve">  timer_clk_div : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
         <v>47</v>
       </c>
@@ -12569,13 +12557,13 @@
         <v>end record t_dcom_data_scheduler_timer_clkdiv_wr_reg;</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P54" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D35</f>
         <v>data_scheduler_timer_status_reg</v>
@@ -12606,7 +12594,7 @@
         <v>type t_dcom_data_scheduler_timer_status_rd_reg is record</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="str">
         <f>$F55</f>
         <v>t_dcom_data_scheduler_timer_status_rd_reg</v>
@@ -12641,7 +12629,7 @@
         <v xml:space="preserve">  timer_stopped : std_logic;</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="23" t="str">
         <f>$F55</f>
         <v>t_dcom_data_scheduler_timer_status_rd_reg</v>
@@ -12676,7 +12664,7 @@
         <v xml:space="preserve">  timer_started : std_logic;</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="23" t="str">
         <f>$F55</f>
         <v>t_dcom_data_scheduler_timer_status_rd_reg</v>
@@ -12711,7 +12699,7 @@
         <v xml:space="preserve">  timer_running : std_logic;</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="23" t="str">
         <f>$F55</f>
         <v>t_dcom_data_scheduler_timer_status_rd_reg</v>
@@ -12746,7 +12734,7 @@
         <v xml:space="preserve">  timer_cleared : std_logic;</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>47</v>
       </c>
@@ -12769,13 +12757,13 @@
         <v>end record t_dcom_data_scheduler_timer_status_rd_reg;</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D40</f>
         <v>data_scheduler_timer_time_reg</v>
@@ -12806,7 +12794,7 @@
         <v>type t_dcom_data_scheduler_timer_time_wr_reg is record</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="23" t="str">
         <f>$F62</f>
         <v>t_dcom_data_scheduler_timer_time_wr_reg</v>
@@ -12852,7 +12840,7 @@
         <v xml:space="preserve">  timer_time : std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
         <v>47</v>
       </c>
@@ -12875,13 +12863,13 @@
         <v>end record t_dcom_data_scheduler_timer_time_wr_reg;</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D41</f>
         <v>data_scheduler_timer_control_reg</v>
@@ -12912,7 +12900,7 @@
         <v>type t_dcom_data_scheduler_timer_control_wr_reg is record</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="23" t="str">
         <f>$F66</f>
         <v>t_dcom_data_scheduler_timer_control_wr_reg</v>
@@ -12947,7 +12935,7 @@
         <v xml:space="preserve">  timer_start : std_logic;</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="str">
         <f>$F66</f>
         <v>t_dcom_data_scheduler_timer_control_wr_reg</v>
@@ -12982,7 +12970,7 @@
         <v xml:space="preserve">  timer_run : std_logic;</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="str">
         <f>$F66</f>
         <v>t_dcom_data_scheduler_timer_control_wr_reg</v>
@@ -13017,7 +13005,7 @@
         <v xml:space="preserve">  timer_stop : std_logic;</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="23" t="str">
         <f>$F66</f>
         <v>t_dcom_data_scheduler_timer_control_wr_reg</v>
@@ -13052,7 +13040,7 @@
         <v xml:space="preserve">  timer_clear : std_logic;</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>47</v>
       </c>
@@ -13075,13 +13063,13 @@
         <v>end record t_dcom_data_scheduler_timer_control_wr_reg;</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D46</f>
         <v>dcom_irq_control_reg</v>
@@ -13112,7 +13100,7 @@
         <v>type t_dcom_dcom_irq_control_wr_reg is record</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="str">
         <f>$F73</f>
         <v>t_dcom_dcom_irq_control_wr_reg</v>
@@ -13147,7 +13135,7 @@
         <v xml:space="preserve">  dcom_tx_end_en : std_logic;</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="str">
         <f>$F73</f>
         <v>t_dcom_dcom_irq_control_wr_reg</v>
@@ -13182,7 +13170,7 @@
         <v xml:space="preserve">  dcom_tx_begin_en : std_logic;</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="str">
         <f>$F73</f>
         <v>t_dcom_dcom_irq_control_wr_reg</v>
@@ -13217,7 +13205,7 @@
         <v xml:space="preserve">  dcom_global_irq_en : std_logic;</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
         <v>47</v>
       </c>
@@ -13240,13 +13228,13 @@
         <v>end record t_dcom_dcom_irq_control_wr_reg;</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P78" t="str">
-        <f t="shared" ref="P73:P99" si="5">CONCATENATE(E78,F78,G78,H78,I78,J78,K78,L78,M78,N78)</f>
+        <f t="shared" ref="P78:P99" si="5">CONCATENATE(E78,F78,G78,H78,I78,J78,K78,L78,M78,N78)</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D51</f>
         <v>dcom_irq_flags_reg</v>
@@ -13277,7 +13265,7 @@
         <v>type t_dcom_dcom_irq_flags_rd_reg is record</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="23" t="str">
         <f>$F79</f>
         <v>t_dcom_dcom_irq_flags_rd_reg</v>
@@ -13312,7 +13300,7 @@
         <v xml:space="preserve">  dcom_tx_end_flag : std_logic;</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="str">
         <f>$F79</f>
         <v>t_dcom_dcom_irq_flags_rd_reg</v>
@@ -13347,7 +13335,7 @@
         <v xml:space="preserve">  dcom_tx_begin_flag : std_logic;</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
         <v>47</v>
       </c>
@@ -13370,13 +13358,13 @@
         <v>end record t_dcom_dcom_irq_flags_rd_reg;</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="23" t="str">
         <f>'AVS DCOM Registers TABLE'!D54</f>
         <v>dcom_irq_flags_clear_reg</v>
@@ -13407,7 +13395,7 @@
         <v>type t_dcom_dcom_irq_flags_clear_wr_reg is record</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="23" t="str">
         <f>$F84</f>
         <v>t_dcom_dcom_irq_flags_clear_wr_reg</v>
@@ -13419,7 +13407,7 @@
       <c r="E85" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="50" t="str">
+      <c r="F85" s="4" t="str">
         <f>'AVS DCOM Registers TABLE'!E54</f>
         <v>dcom_tx_end_flag_clear</v>
       </c>
@@ -13442,7 +13430,7 @@
         <v xml:space="preserve">  dcom_tx_end_flag_clear : std_logic;</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="str">
         <f>$F84</f>
         <v>t_dcom_dcom_irq_flags_clear_wr_reg</v>
@@ -13477,7 +13465,7 @@
         <v xml:space="preserve">  dcom_tx_begin_flag_clear : std_logic;</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
         <v>47</v>
       </c>
@@ -13500,13 +13488,13 @@
         <v>end record t_dcom_dcom_irq_flags_clear_wr_reg;</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
         <v>45</v>
       </c>
@@ -13529,7 +13517,7 @@
         <v>type t_dcom_write_registers is record</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13561,7 +13549,7 @@
         <v xml:space="preserve">  spw_link_config_reg : t_dcom_spw_link_config_wr_reg;</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13593,7 +13581,7 @@
         <v xml:space="preserve">  spw_timecode_tx_rxctrl_reg : t_dcom_spw_timecode_tx_rxctrl_wr_reg;</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13625,7 +13613,7 @@
         <v xml:space="preserve">  data_controller_config_reg : t_dcom_data_controller_config_wr_reg;</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13657,7 +13645,7 @@
         <v xml:space="preserve">  data_scheduler_timer_config_reg : t_dcom_data_scheduler_timer_config_wr_reg;</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13689,7 +13677,7 @@
         <v xml:space="preserve">  data_scheduler_timer_clkdiv_reg : t_dcom_data_scheduler_timer_clkdiv_wr_reg;</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13721,7 +13709,7 @@
         <v xml:space="preserve">  data_scheduler_timer_time_reg : t_dcom_data_scheduler_timer_time_wr_reg;</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13753,7 +13741,7 @@
         <v xml:space="preserve">  data_scheduler_timer_control_reg : t_dcom_data_scheduler_timer_control_wr_reg;</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13785,7 +13773,7 @@
         <v xml:space="preserve">  dcom_irq_control_reg : t_dcom_dcom_irq_control_wr_reg;</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="23" t="str">
         <f>$F89</f>
         <v>t_dcom_write_registers</v>
@@ -13817,7 +13805,7 @@
         <v xml:space="preserve">  dcom_irq_flags_clear_reg : t_dcom_dcom_irq_flags_clear_wr_reg;</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
         <v>47</v>
       </c>
@@ -13840,13 +13828,13 @@
         <v>end record t_dcom_write_registers;</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P100" t="str">
-        <f t="shared" ref="P91:P107" si="7">CONCATENATE(E100,F100,G100,H100,I100,J100,K100,L100,M100,N100)</f>
+        <f t="shared" ref="P100:P107" si="7">CONCATENATE(E100,F100,G100,H100,I100,J100,K100,L100,M100,N100)</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E101" s="1" t="s">
         <v>45</v>
       </c>
@@ -13869,7 +13857,7 @@
         <v>type t_dcom_read_registers is record</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="str">
         <f>$F101</f>
         <v>t_dcom_read_registers</v>
@@ -13901,7 +13889,7 @@
         <v xml:space="preserve">  spw_link_status_reg : t_dcom_spw_link_status_rd_reg;</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="23" t="str">
         <f>$F101</f>
         <v>t_dcom_read_registers</v>
@@ -13910,7 +13898,7 @@
         <v>49</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f t="shared" ref="F102:F106" si="9">INDEX($B$6:$B$87,MATCH($H103,$F$6:$F$87,0))</f>
+        <f t="shared" ref="F103:F106" si="9">INDEX($B$6:$B$87,MATCH($H103,$F$6:$F$87,0))</f>
         <v>spw_timecode_rx_reg</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -13934,7 +13922,7 @@
         <v xml:space="preserve">  spw_timecode_rx_reg : t_dcom_spw_timecode_rx_rd_reg;</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="23" t="str">
         <f>$F101</f>
         <v>t_dcom_read_registers</v>
@@ -13966,7 +13954,7 @@
         <v xml:space="preserve">  data_buffers_status_reg : t_dcom_data_buffers_status_rd_reg;</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="23" t="str">
         <f>$F101</f>
         <v>t_dcom_read_registers</v>
@@ -13998,7 +13986,7 @@
         <v xml:space="preserve">  data_scheduler_timer_status_reg : t_dcom_data_scheduler_timer_status_rd_reg;</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="23" t="str">
         <f>$F101</f>
         <v>t_dcom_read_registers</v>
@@ -14030,7 +14018,7 @@
         <v xml:space="preserve">  dcom_irq_flags_reg : t_dcom_dcom_irq_flags_rd_reg;</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E107" s="1" t="s">
         <v>47</v>
       </c>
@@ -14064,17 +14052,16 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>82</v>
       </c>
@@ -14088,7 +14075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D3,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14106,7 +14093,7 @@
         <v>spw_lnkcfg_disconnect</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D4,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14124,7 +14111,7 @@
         <v>spw_lnkcfg_linkstart</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D5,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14142,7 +14129,7 @@
         <v>spw_lnkcfg_autostart</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D6,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14160,7 +14147,7 @@
         <v>spw_link_running</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D7,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14178,7 +14165,7 @@
         <v>spw_link_connecting</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D8,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14196,7 +14183,7 @@
         <v>spw_link_started</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D9,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14214,7 +14201,7 @@
         <v>spw_err_disconnect</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D10,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14232,7 +14219,7 @@
         <v>spw_err_parity</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D11,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14250,7 +14237,7 @@
         <v>spw_err_escape</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D12,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14268,7 +14255,7 @@
         <v>spw_err_credit</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D13,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14286,7 +14273,7 @@
         <v>spw_lnkcfg_txdivcnt</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D14,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14304,7 +14291,7 @@
         <v>timecode_tx_time</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D15,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14322,7 +14309,7 @@
         <v>timecode_tx_control</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D16,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14340,7 +14327,7 @@
         <v>timecode_tx_send</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D17,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14358,7 +14345,7 @@
         <v>timecode_rx_time</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D18,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14376,7 +14363,7 @@
         <v>timecode_rx_control</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D19,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14394,7 +14381,7 @@
         <v>timecode_rx_received</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D20,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14408,10 +14395,10 @@
         <v>spw_timecode_tx_rxctrl_reg</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D21,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14429,7 +14416,7 @@
         <v>data_buffer_used</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D22,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14447,7 +14434,7 @@
         <v>data_buffer_empty</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D23,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14465,7 +14452,7 @@
         <v>data_buffer_full</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D24,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14483,7 +14470,7 @@
         <v>send_eop</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D25,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14501,7 +14488,7 @@
         <v>send_eep</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D26,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14519,7 +14506,7 @@
         <v>timer_start_on_sync</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D27,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14537,7 +14524,7 @@
         <v>timer_clk_div</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D28,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14555,7 +14542,7 @@
         <v>timer_stopped</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D29,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14573,7 +14560,7 @@
         <v>timer_started</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D30,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14591,7 +14578,7 @@
         <v>timer_running</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D31,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14609,7 +14596,7 @@
         <v>timer_cleared</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D32,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14627,7 +14614,7 @@
         <v>timer_time</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D33,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14645,7 +14632,7 @@
         <v>timer_start</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D34,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14663,7 +14650,7 @@
         <v>timer_run</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D35,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14681,7 +14668,7 @@
         <v>timer_stop</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D36,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14699,7 +14686,7 @@
         <v>timer_clear</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D37,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14717,7 +14704,7 @@
         <v>dcom_tx_end_en</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D38,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14735,7 +14722,7 @@
         <v>dcom_tx_begin_en</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D39,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14753,7 +14740,7 @@
         <v>dcom_global_irq_en</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D40,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14771,7 +14758,7 @@
         <v>dcom_tx_end_flag</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D41,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_read_registers</v>
@@ -14789,7 +14776,7 @@
         <v>dcom_tx_begin_flag</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D42,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14807,7 +14794,7 @@
         <v>dcom_tx_end_flag_clear</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>INDEX('Register VHDL Types'!$B$6:$B$107,MATCH('Register VHDL Types TABLE'!D43,'Register VHDL Types'!$F$6:$F$107,0))</f>
         <v>t_dcom_write_registers</v>
@@ -14836,48 +14823,45 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11:AB113"/>
-    </sheetView>
-    <sheetView zoomScaleNormal="100" workbookViewId="1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="8" width="3.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="11" width="3.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" customWidth="1"/>
-    <col min="21" max="21" width="27.88671875" customWidth="1"/>
-    <col min="22" max="22" width="3.44140625" customWidth="1"/>
-    <col min="23" max="23" width="40.6640625" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" customWidth="1"/>
-    <col min="25" max="25" width="46.6640625" customWidth="1"/>
-    <col min="26" max="26" width="3.44140625" customWidth="1"/>
-    <col min="28" max="28" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="25" max="25" width="46.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="28" max="28" width="126.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -14917,9 +14901,9 @@
         <v>dcom_read_registers_i  : in t_dcom_read_registers;</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
@@ -14959,9 +14943,9 @@
         <v>dcom_write_registers_i  : in t_dcom_write_registers;</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>50</v>
@@ -15012,13 +14996,13 @@
         <v>avalon_mm_dcom_o.readdata  : out std_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -15027,7 +15011,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -15080,13 +15064,13 @@
         <v>signal read_address_i  : std_logic_vector(7 downto 0);</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>52</v>
       </c>
@@ -15095,7 +15079,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -15133,7 +15117,7 @@
         <v>case (read_address_i) is</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -15175,7 +15159,7 @@
         <v xml:space="preserve">  when (x"00") =&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -15237,7 +15221,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.spw_link_config_reg.spw_lnkcfg_disconnect;</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -15299,7 +15283,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_write_registers_i.spw_link_config_reg.spw_lnkcfg_linkstart;</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -15361,7 +15345,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(2) &lt;= dcom_write_registers_i.spw_link_config_reg.spw_lnkcfg_autostart;</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -15413,7 +15397,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(7 downto 3) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -15475,7 +15459,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(8) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_link_running;</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -15537,7 +15521,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(9) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_link_connecting;</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -15599,7 +15583,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(10) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_link_started;</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -15651,7 +15635,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(15 downto 11) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -15713,7 +15697,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(16) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_err_disconnect;</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -15775,7 +15759,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(17) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_err_parity;</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -15837,7 +15821,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(18) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_err_escape;</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -15899,7 +15883,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(19) &lt;= dcom_read_registers_i.spw_link_status_reg.spw_err_credit;</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -15951,7 +15935,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(23 downto 20) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -16013,7 +15997,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 24) &lt;= dcom_write_registers_i.spw_link_config_reg.spw_lnkcfg_txdivcnt;</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -16053,7 +16037,7 @@
         <v>when (x"01") =&gt;</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -16115,7 +16099,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(5 downto 0) &lt;= dcom_write_registers_i.spw_timecode_tx_rxctrl_reg.timecode_tx_time;</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -16177,7 +16161,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(7 downto 6) &lt;= dcom_write_registers_i.spw_timecode_tx_rxctrl_reg.timecode_tx_control;</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -16239,7 +16223,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(8) &lt;= dcom_write_registers_i.spw_timecode_tx_rxctrl_reg.timecode_tx_send;</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -16291,7 +16275,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(15 downto 9) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -16353,7 +16337,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(21 downto 16) &lt;= dcom_read_registers_i.spw_timecode_rx_reg.timecode_rx_time;</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -16415,7 +16399,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(23 downto 22) &lt;= dcom_read_registers_i.spw_timecode_rx_reg.timecode_rx_control;</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -16477,7 +16461,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(24) &lt;= dcom_read_registers_i.spw_timecode_rx_reg.timecode_rx_received;</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -16529,7 +16513,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 25) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -16569,7 +16553,7 @@
         <v>when (x"02") =&gt;</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -16631,7 +16615,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(15 downto 0) &lt;= dcom_read_registers_i.data_buffers_status_reg.data_buffer_used;</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -16693,7 +16677,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(16) &lt;= dcom_read_registers_i.data_buffers_status_reg.data_buffer_empty;</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -16755,7 +16739,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(17) &lt;= dcom_read_registers_i.data_buffers_status_reg.data_buffer_full;</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -16807,7 +16791,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 18) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -16847,7 +16831,7 @@
         <v>when (x"03") =&gt;</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -16909,7 +16893,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.data_controller_config_reg.send_eop;</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -16971,7 +16955,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_write_registers_i.data_controller_config_reg.send_eep;</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -17023,7 +17007,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 2) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -17063,7 +17047,7 @@
         <v>when (x"04") =&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -17125,7 +17109,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.data_scheduler_timer_config_reg.timer_start_on_sync;</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -17177,7 +17161,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 1) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -17217,7 +17201,7 @@
         <v>when (x"05") =&gt;</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -17279,7 +17263,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 0) &lt;= dcom_write_registers_i.data_scheduler_timer_clkdiv_reg.timer_clk_div;</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -17319,7 +17303,7 @@
         <v>when (x"06") =&gt;</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -17381,7 +17365,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_read_registers_i.data_scheduler_timer_status_reg.timer_stopped;</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -17443,7 +17427,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_read_registers_i.data_scheduler_timer_status_reg.timer_started;</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -17505,7 +17489,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(2) &lt;= dcom_read_registers_i.data_scheduler_timer_status_reg.timer_running;</v>
       </c>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -17567,7 +17551,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(3) &lt;= dcom_read_registers_i.data_scheduler_timer_status_reg.timer_cleared;</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -17619,7 +17603,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 4) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -17659,7 +17643,7 @@
         <v>when (x"07") =&gt;</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -17721,7 +17705,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 0) &lt;= dcom_write_registers_i.data_scheduler_timer_time_reg.timer_time;</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -17761,7 +17745,7 @@
         <v>when (x"08") =&gt;</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -17823,7 +17807,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.data_scheduler_timer_control_reg.timer_start;</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -17885,7 +17869,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_write_registers_i.data_scheduler_timer_control_reg.timer_run;</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -17947,7 +17931,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(2) &lt;= dcom_write_registers_i.data_scheduler_timer_control_reg.timer_stop;</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -18009,7 +17993,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(3) &lt;= dcom_write_registers_i.data_scheduler_timer_control_reg.timer_clear;</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -18061,7 +18045,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 4) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -18101,7 +18085,7 @@
         <v>when (x"09") =&gt;</v>
       </c>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -18163,7 +18147,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.dcom_irq_control_reg.dcom_tx_end_en;</v>
       </c>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -18225,7 +18209,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_write_registers_i.dcom_irq_control_reg.dcom_tx_begin_en;</v>
       </c>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -18277,7 +18261,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(7 downto 2) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -18339,7 +18323,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(8) &lt;= dcom_write_registers_i.dcom_irq_control_reg.dcom_global_irq_en;</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -18391,7 +18375,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 9) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -18431,7 +18415,7 @@
         <v>when (x"0A") =&gt;</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -18493,7 +18477,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_read_registers_i.dcom_irq_flags_reg.dcom_tx_end_flag;</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -18555,7 +18539,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_read_registers_i.dcom_irq_flags_reg.dcom_tx_begin_flag;</v>
       </c>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -18607,7 +18591,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 2) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -18647,7 +18631,7 @@
         <v>when (x"0B") =&gt;</v>
       </c>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -18709,7 +18693,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(0) &lt;= dcom_write_registers_i.dcom_irq_flags_clear_reg.dcom_tx_end_flag_clear;</v>
       </c>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -18771,7 +18755,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(1) &lt;= dcom_write_registers_i.dcom_irq_flags_clear_reg.dcom_tx_begin_flag_clear;</v>
       </c>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -18823,7 +18807,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata(31 downto 2) &lt;= (others =&gt; '0');</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -18862,7 +18846,7 @@
         <v>when others =&gt;.</v>
       </c>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -18908,7 +18892,7 @@
         <v xml:space="preserve">    avalon_mm_dcom_o.readdata &lt;= (others =&gt; '0').;</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -18952,47 +18936,44 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB69" sqref="AB69:AB95"/>
-    </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="11" width="3.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="18" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="20" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="11" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="18" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -19043,9 +19024,9 @@
         <v>avalon_mm_dcom_i.writedata  : instd_logic_vector(31 downto 0);</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
@@ -19085,13 +19066,13 @@
         <v>dcom_write_registers_o  : out t_dcom_write_registers;</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -19100,7 +19081,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
@@ -19153,13 +19134,13 @@
         <v>signal write_address_i  : std_logic_vector(7 downto 0);</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -19168,7 +19149,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -19206,7 +19187,7 @@
         <v>case (write_address_i) is</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -19248,7 +19229,7 @@
         <v xml:space="preserve">  when (x"00") =&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -19310,7 +19291,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_disconnect &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -19372,7 +19353,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_linkstart &lt;= avalon_mm_dcom_i.writedata(1);</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -19434,7 +19415,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_autostart &lt;= avalon_mm_dcom_i.writedata(2);</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -19496,7 +19477,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_txdivcnt &lt;= avalon_mm_dcom_i.writedata(31 downto 24);</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19538,7 +19519,7 @@
         <v xml:space="preserve">  when (x"01") =&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -19600,7 +19581,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_time &lt;= avalon_mm_dcom_i.writedata(5 downto 0);</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -19662,7 +19643,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_control &lt;= avalon_mm_dcom_i.writedata(7 downto 6);</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -19724,7 +19705,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_send &lt;= avalon_mm_dcom_i.writedata(8);</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -19758,7 +19739,7 @@
         <v>64</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>62</v>
@@ -19784,7 +19765,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_rx_received_clr &lt;= avalon_mm_dcom_i.writedata(24);</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -19826,7 +19807,7 @@
         <v xml:space="preserve">  when (x"02") =&gt;</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -19865,7 +19846,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -19907,7 +19888,7 @@
         <v xml:space="preserve">  when (x"03") =&gt;</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -19969,7 +19950,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_controller_config_reg.send_eop &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -20031,7 +20012,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_controller_config_reg.send_eep &lt;= avalon_mm_dcom_i.writedata(1);</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -20073,7 +20054,7 @@
         <v xml:space="preserve">  when (x"04") =&gt;</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -20135,7 +20116,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_config_reg.timer_start_on_sync &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -20177,7 +20158,7 @@
         <v xml:space="preserve">  when (x"05") =&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -20239,7 +20220,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_clkdiv_reg.timer_clk_div &lt;= avalon_mm_dcom_i.writedata(31 downto 0);</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -20281,7 +20262,7 @@
         <v xml:space="preserve">  when (x"06") =&gt;</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -20320,7 +20301,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20362,7 +20343,7 @@
         <v xml:space="preserve">  when (x"07") =&gt;</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -20424,7 +20405,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_time_reg.timer_time &lt;= avalon_mm_dcom_i.writedata(31 downto 0);</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -20466,7 +20447,7 @@
         <v xml:space="preserve">  when (x"08") =&gt;</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -20528,7 +20509,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_start &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -20590,7 +20571,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_run &lt;= avalon_mm_dcom_i.writedata(1);</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -20652,7 +20633,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_stop &lt;= avalon_mm_dcom_i.writedata(2);</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -20714,7 +20695,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_clear &lt;= avalon_mm_dcom_i.writedata(3);</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -20756,7 +20737,7 @@
         <v xml:space="preserve">  when (x"09") =&gt;</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -20818,7 +20799,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_tx_end_en &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -20880,7 +20861,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_tx_begin_en &lt;= avalon_mm_dcom_i.writedata(1);</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -20942,7 +20923,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_global_irq_en &lt;= avalon_mm_dcom_i.writedata(8);</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -20982,7 +20963,7 @@
         <v>when (x"0A") =&gt;</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -21021,7 +21002,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -21061,7 +21042,7 @@
         <v>when (x"0B") =&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -21123,7 +21104,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_flags_clear_reg.dcom_tx_end_flag_clear &lt;= avalon_mm_dcom_i.writedata(0);</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -21185,7 +21166,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_flags_clear_reg.dcom_tx_begin_flag_clear &lt;= avalon_mm_dcom_i.writedata(1);</v>
       </c>
     </row>
-    <row r="47" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -21224,7 +21205,7 @@
         <v xml:space="preserve">  when others =&gt;</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -21263,7 +21244,7 @@
         <v xml:space="preserve">    null;</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -21296,13 +21277,13 @@
         <v>end case;</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB50" t="str">
         <f>CONCATENATE(B50,C50,D50,E50,F50,G50,H50,I50,J50,K50,L50,M50,N50,O50,P50,Q50,R50,S50,T50,U50,V50,W50,X50,Y50,Z50)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -21311,7 +21292,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -21366,7 +21347,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_disconnect &lt;= '0';</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -21421,7 +21402,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_linkstart &lt;= '0';</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -21476,7 +21457,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_autostart &lt;= '0';</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -21531,7 +21512,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_link_config_reg.spw_lnkcfg_txdivcnt &lt;= x"01";</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -21586,7 +21567,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_time &lt;= "000000";</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -21641,7 +21622,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_control &lt;= "00";</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -21696,7 +21677,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_tx_send &lt;= '0';</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -21730,13 +21711,13 @@
         <v>64</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>62</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
@@ -21749,7 +21730,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.spw_timecode_tx_rxctrl_reg.timecode_rx_received_clr &lt;= '0';</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -21804,7 +21785,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_controller_config_reg.send_eop &lt;= '1';</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -21859,7 +21840,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_controller_config_reg.send_eep &lt;= '1';</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -21914,7 +21895,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_config_reg.timer_start_on_sync &lt;= '1';</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -21969,7 +21950,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_clkdiv_reg.timer_clk_div &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -22024,7 +22005,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_time_reg.timer_time &lt;= x"00000000";</v>
       </c>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -22079,7 +22060,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_start &lt;= '0';</v>
       </c>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -22134,7 +22115,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_run &lt;= '0';</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -22189,7 +22170,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_stop &lt;= '0';</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -22244,7 +22225,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.data_scheduler_timer_control_reg.timer_clear &lt;= '0';</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -22299,7 +22280,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_tx_end_en &lt;= '0';</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -22354,7 +22335,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_tx_begin_en &lt;= '0';</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -22409,7 +22390,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_control_reg.dcom_global_irq_en &lt;= '0';</v>
       </c>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -22464,7 +22445,7 @@
         <v xml:space="preserve">    dcom_write_registers_o.dcom_irq_flags_clear_reg.dcom_tx_end_flag_clear &lt;= '0';</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
